--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed4/result_data_KNN.xlsx
@@ -584,7 +584,7 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>7.324</v>
+        <v>6.795</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>7.188</v>
+        <v>6.606</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>5.130000000000001</v>
+        <v>5.787000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>6.210000000000001</v>
+        <v>6.313000000000001</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.882</v>
+        <v>6.661</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
